--- a/Code/Results/Cases/Case_0_84/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_84/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005272596995321</v>
+        <v>1.035626920226119</v>
       </c>
       <c r="D2">
-        <v>1.01889711996642</v>
+        <v>1.043624602210796</v>
       </c>
       <c r="E2">
-        <v>1.019113612592089</v>
+        <v>1.044091706489379</v>
       </c>
       <c r="F2">
-        <v>1.02565524854458</v>
+        <v>1.05366442745138</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044847052261719</v>
+        <v>1.032575100587231</v>
       </c>
       <c r="J2">
-        <v>1.027296741191011</v>
+        <v>1.040739663707883</v>
       </c>
       <c r="K2">
-        <v>1.030099318793354</v>
+        <v>1.046397942509901</v>
       </c>
       <c r="L2">
-        <v>1.030312934927868</v>
+        <v>1.046863731298549</v>
       </c>
       <c r="M2">
-        <v>1.036768371149597</v>
+        <v>1.056409771367323</v>
       </c>
       <c r="N2">
-        <v>1.01293747699864</v>
+        <v>1.01752394591051</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009289589728503</v>
+        <v>1.036491012469765</v>
       </c>
       <c r="D3">
-        <v>1.0222416561472</v>
+        <v>1.044395999858868</v>
       </c>
       <c r="E3">
-        <v>1.022454390445739</v>
+        <v>1.044864885175132</v>
       </c>
       <c r="F3">
-        <v>1.029363602663663</v>
+        <v>1.054531073377579</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045484107750992</v>
+        <v>1.032646022446604</v>
       </c>
       <c r="J3">
-        <v>1.029530175267731</v>
+        <v>1.041247813820245</v>
       </c>
       <c r="K3">
-        <v>1.032597645465307</v>
+        <v>1.046980516733484</v>
       </c>
       <c r="L3">
-        <v>1.032807803639092</v>
+        <v>1.047448176880773</v>
       </c>
       <c r="M3">
-        <v>1.039634065846213</v>
+        <v>1.057089369788153</v>
       </c>
       <c r="N3">
-        <v>1.013690636672344</v>
+        <v>1.017693974299031</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011841218331059</v>
+        <v>1.037050763424595</v>
       </c>
       <c r="D4">
-        <v>1.024371740594699</v>
+        <v>1.044896071442355</v>
       </c>
       <c r="E4">
-        <v>1.024582554963338</v>
+        <v>1.045366162283228</v>
       </c>
       <c r="F4">
-        <v>1.031726273954748</v>
+        <v>1.055093043636203</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045877154392246</v>
+        <v>1.032690519455625</v>
       </c>
       <c r="J4">
-        <v>1.03094679920127</v>
+        <v>1.041576592950654</v>
       </c>
       <c r="K4">
-        <v>1.034184656210494</v>
+        <v>1.047357745120445</v>
       </c>
       <c r="L4">
-        <v>1.034393074029139</v>
+        <v>1.047826669408872</v>
       </c>
       <c r="M4">
-        <v>1.041456295440357</v>
+        <v>1.057529663920271</v>
       </c>
       <c r="N4">
-        <v>1.014168171476086</v>
+        <v>1.017803940699223</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012902873248006</v>
+        <v>1.037286230835973</v>
       </c>
       <c r="D5">
-        <v>1.02525931425825</v>
+        <v>1.045106521299001</v>
       </c>
       <c r="E5">
-        <v>1.025469441894787</v>
+        <v>1.045577131646819</v>
       </c>
       <c r="F5">
-        <v>1.032710981031915</v>
+        <v>1.055329579445941</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046037861144051</v>
+        <v>1.032708891579245</v>
       </c>
       <c r="J5">
-        <v>1.031535684778805</v>
+        <v>1.041714803657415</v>
       </c>
       <c r="K5">
-        <v>1.034844943450768</v>
+        <v>1.047516393631427</v>
       </c>
       <c r="L5">
-        <v>1.035052746869561</v>
+        <v>1.047985862113665</v>
       </c>
       <c r="M5">
-        <v>1.042214896784623</v>
+        <v>1.057714893237845</v>
       </c>
       <c r="N5">
-        <v>1.01436663544146</v>
+        <v>1.017850157311674</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013080491826735</v>
+        <v>1.037325775488237</v>
       </c>
       <c r="D6">
-        <v>1.025407884473338</v>
+        <v>1.045141869588943</v>
       </c>
       <c r="E6">
-        <v>1.025617903804869</v>
+        <v>1.045612567909207</v>
       </c>
       <c r="F6">
-        <v>1.032875823361837</v>
+        <v>1.055369311417888</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046064580545653</v>
+        <v>1.032711956710249</v>
       </c>
       <c r="J6">
-        <v>1.03163417543833</v>
+        <v>1.041738009332726</v>
       </c>
       <c r="K6">
-        <v>1.034955409746963</v>
+        <v>1.047543034989323</v>
       </c>
       <c r="L6">
-        <v>1.035163116830849</v>
+        <v>1.048012595591737</v>
       </c>
       <c r="M6">
-        <v>1.042341837621288</v>
+        <v>1.057746001610916</v>
       </c>
       <c r="N6">
-        <v>1.014399825637245</v>
+        <v>1.017857916492216</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011855447175519</v>
+        <v>1.037053909171745</v>
       </c>
       <c r="D7">
-        <v>1.024383631183381</v>
+        <v>1.044898882622458</v>
       </c>
       <c r="E7">
-        <v>1.024594435905529</v>
+        <v>1.045368980355091</v>
       </c>
       <c r="F7">
-        <v>1.031739464943584</v>
+        <v>1.055096203127707</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045879319486444</v>
+        <v>1.032690766259691</v>
       </c>
       <c r="J7">
-        <v>1.030954693875525</v>
+        <v>1.041578439762161</v>
       </c>
       <c r="K7">
-        <v>1.034193505838169</v>
+        <v>1.047359864749051</v>
       </c>
       <c r="L7">
-        <v>1.034401914988769</v>
+        <v>1.047828796258926</v>
       </c>
       <c r="M7">
-        <v>1.041466460960752</v>
+        <v>1.05753213845606</v>
       </c>
       <c r="N7">
-        <v>1.014170832292228</v>
+        <v>1.017804558300592</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006640239582302</v>
+        <v>1.035918813749614</v>
       </c>
       <c r="D8">
-        <v>1.02003461966919</v>
+        <v>1.043885106864295</v>
       </c>
       <c r="E8">
-        <v>1.0202497348058</v>
+        <v>1.044352802062566</v>
       </c>
       <c r="F8">
-        <v>1.026916306690432</v>
+        <v>1.053957066435467</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045066354357956</v>
+        <v>1.032599357244109</v>
       </c>
       <c r="J8">
-        <v>1.028057560545017</v>
+        <v>1.040911400401632</v>
       </c>
       <c r="K8">
-        <v>1.03094987910631</v>
+        <v>1.046594770660754</v>
       </c>
       <c r="L8">
-        <v>1.031162222557868</v>
+        <v>1.047061180859563</v>
       </c>
       <c r="M8">
-        <v>1.037743616651167</v>
+        <v>1.056639330270852</v>
       </c>
       <c r="N8">
-        <v>1.013194077047459</v>
+        <v>1.017581418547747</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9970688562892313</v>
+        <v>1.033923493451611</v>
       </c>
       <c r="D9">
-        <v>1.012099064266959</v>
+        <v>1.042105876478909</v>
       </c>
       <c r="E9">
-        <v>1.01232579972792</v>
+        <v>1.042569744663843</v>
       </c>
       <c r="F9">
-        <v>1.018122138279796</v>
+        <v>1.051958980511702</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043484154324502</v>
+        <v>1.032427633894362</v>
       </c>
       <c r="J9">
-        <v>1.022725547089762</v>
+        <v>1.039735836973148</v>
       </c>
       <c r="K9">
-        <v>1.024998845822248</v>
+        <v>1.045248663912828</v>
       </c>
       <c r="L9">
-        <v>1.025222015377434</v>
+        <v>1.045711038984046</v>
       </c>
       <c r="M9">
-        <v>1.03092788291201</v>
+        <v>1.05507036206632</v>
       </c>
       <c r="N9">
-        <v>1.011395097143709</v>
+        <v>1.017187831090617</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9904068042997067</v>
+        <v>1.032596646662624</v>
       </c>
       <c r="D10">
-        <v>1.006609298993954</v>
+        <v>1.04092465569426</v>
       </c>
       <c r="E10">
-        <v>1.006846643697055</v>
+        <v>1.04138624599982</v>
       </c>
       <c r="F10">
-        <v>1.012042303335983</v>
+        <v>1.050633237420432</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042324543735984</v>
+        <v>1.03230603060926</v>
       </c>
       <c r="J10">
-        <v>1.019006275916305</v>
+        <v>1.038952103916937</v>
       </c>
       <c r="K10">
-        <v>1.020860237152471</v>
+        <v>1.044352750838056</v>
       </c>
       <c r="L10">
-        <v>1.021093370518095</v>
+        <v>1.044812709893414</v>
       </c>
       <c r="M10">
-        <v>1.026197481841523</v>
+        <v>1.054027355152233</v>
       </c>
       <c r="N10">
-        <v>1.010139511318821</v>
+        <v>1.016925208826512</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9874494990689913</v>
+        <v>1.032022926309189</v>
       </c>
       <c r="D11">
-        <v>1.00418095542917</v>
+        <v>1.040414367435197</v>
       </c>
       <c r="E11">
-        <v>1.004423611299093</v>
+        <v>1.040875036285391</v>
       </c>
       <c r="F11">
-        <v>1.009353759087112</v>
+        <v>1.050060698203215</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041796550875055</v>
+        <v>1.032251694167479</v>
       </c>
       <c r="J11">
-        <v>1.017353877499336</v>
+        <v>1.038612749992008</v>
       </c>
       <c r="K11">
-        <v>1.019024453437722</v>
+        <v>1.04396518297115</v>
       </c>
       <c r="L11">
-        <v>1.019262584190703</v>
+        <v>1.044424160858728</v>
       </c>
       <c r="M11">
-        <v>1.02410140705839</v>
+        <v>1.053576447289667</v>
       </c>
       <c r="N11">
-        <v>1.009581540613743</v>
+        <v>1.016811441976499</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9863395824310667</v>
+        <v>1.03180994481074</v>
       </c>
       <c r="D12">
-        <v>1.003270906961278</v>
+        <v>1.040225004054361</v>
       </c>
       <c r="E12">
-        <v>1.003515646961396</v>
+        <v>1.040685340386378</v>
       </c>
       <c r="F12">
-        <v>1.008346309129496</v>
+        <v>1.049848261440063</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04159645118987</v>
+        <v>1.032231259216615</v>
       </c>
       <c r="J12">
-        <v>1.016733542566409</v>
+        <v>1.038486701339081</v>
       </c>
       <c r="K12">
-        <v>1.018335708711578</v>
+        <v>1.043821279859903</v>
       </c>
       <c r="L12">
-        <v>1.018575801255881</v>
+        <v>1.044279903061213</v>
       </c>
       <c r="M12">
-        <v>1.023315335088438</v>
+        <v>1.053409070033019</v>
       </c>
       <c r="N12">
-        <v>1.009372052242186</v>
+        <v>1.016769176936979</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9865781900421373</v>
+        <v>1.031855624437335</v>
       </c>
       <c r="D13">
-        <v>1.003466485819055</v>
+        <v>1.040265614948504</v>
       </c>
       <c r="E13">
-        <v>1.00371077366829</v>
+        <v>1.040726022165471</v>
       </c>
       <c r="F13">
-        <v>1.008562815702436</v>
+        <v>1.049893819416283</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041639554884388</v>
+        <v>1.03223565397521</v>
       </c>
       <c r="J13">
-        <v>1.016866907759001</v>
+        <v>1.038513739067952</v>
       </c>
       <c r="K13">
-        <v>1.018483761605733</v>
+        <v>1.043852144969021</v>
       </c>
       <c r="L13">
-        <v>1.018723428513876</v>
+        <v>1.044310843809935</v>
       </c>
       <c r="M13">
-        <v>1.023484294735819</v>
+        <v>1.053444968018103</v>
       </c>
       <c r="N13">
-        <v>1.009417090698941</v>
+        <v>1.016778243238672</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9873579896342259</v>
+        <v>1.032005318657443</v>
       </c>
       <c r="D14">
-        <v>1.004105896955666</v>
+        <v>1.040398710908021</v>
       </c>
       <c r="E14">
-        <v>1.004348722807877</v>
+        <v>1.040859352073213</v>
       </c>
       <c r="F14">
-        <v>1.009270664977687</v>
+        <v>1.050043133414866</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04178009231005</v>
+        <v>1.032250010144637</v>
       </c>
       <c r="J14">
-        <v>1.017302735818464</v>
+        <v>1.038602330712117</v>
       </c>
       <c r="K14">
-        <v>1.018967663067435</v>
+        <v>1.043953286726657</v>
       </c>
       <c r="L14">
-        <v>1.019205953812038</v>
+        <v>1.044412235096591</v>
       </c>
       <c r="M14">
-        <v>1.024036584933671</v>
+        <v>1.053562609579758</v>
       </c>
       <c r="N14">
-        <v>1.009564270309918</v>
+        <v>1.016807948474376</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9878369171824936</v>
+        <v>1.032097566658678</v>
       </c>
       <c r="D15">
-        <v>1.004498781113251</v>
+        <v>1.040480739682702</v>
       </c>
       <c r="E15">
-        <v>1.00474072104371</v>
+        <v>1.040941526283378</v>
       </c>
       <c r="F15">
-        <v>1.00970561515432</v>
+        <v>1.050135161206851</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041866151858054</v>
+        <v>1.032258822084082</v>
       </c>
       <c r="J15">
-        <v>1.01757038645833</v>
+        <v>1.038656915320338</v>
       </c>
       <c r="K15">
-        <v>1.01926489395087</v>
+        <v>1.044015611079858</v>
       </c>
       <c r="L15">
-        <v>1.019502350871881</v>
+        <v>1.044474714486572</v>
       </c>
       <c r="M15">
-        <v>1.024375865974625</v>
+        <v>1.053635107054766</v>
       </c>
       <c r="N15">
-        <v>1.009654653954499</v>
+        <v>1.016826249942302</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9906014964816684</v>
+        <v>1.032634739862522</v>
       </c>
       <c r="D16">
-        <v>1.006769350728154</v>
+        <v>1.040958547039882</v>
       </c>
       <c r="E16">
-        <v>1.007006358357087</v>
+        <v>1.041420199866691</v>
       </c>
       <c r="F16">
-        <v>1.012219520934116</v>
+        <v>1.050671267078948</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04235903199491</v>
+        <v>1.032309601368781</v>
       </c>
       <c r="J16">
-        <v>1.019115034806099</v>
+        <v>1.038974625996247</v>
       </c>
       <c r="K16">
-        <v>1.020981126872776</v>
+        <v>1.044378480331092</v>
       </c>
       <c r="L16">
-        <v>1.021213943213092</v>
+        <v>1.044838505872457</v>
       </c>
       <c r="M16">
-        <v>1.026335558017838</v>
+        <v>1.054057295756054</v>
       </c>
       <c r="N16">
-        <v>1.010176233640075</v>
+        <v>1.016932758153505</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9923158408472814</v>
+        <v>1.032971913252483</v>
       </c>
       <c r="D17">
-        <v>1.008179656248701</v>
+        <v>1.041258582407555</v>
       </c>
       <c r="E17">
-        <v>1.008413764446535</v>
+        <v>1.041720795968347</v>
       </c>
       <c r="F17">
-        <v>1.013781175895515</v>
+        <v>1.051007959486965</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042661212071112</v>
+        <v>1.03234100415896</v>
       </c>
       <c r="J17">
-        <v>1.020072546572152</v>
+        <v>1.039173920516027</v>
       </c>
       <c r="K17">
-        <v>1.022045770532588</v>
+        <v>1.044606198318987</v>
       </c>
       <c r="L17">
-        <v>1.022275860815198</v>
+        <v>1.045066819688999</v>
       </c>
       <c r="M17">
-        <v>1.027551810144573</v>
+        <v>1.054322317793547</v>
       </c>
       <c r="N17">
-        <v>1.010499520990986</v>
+        <v>1.016999554991937</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9933088226004823</v>
+        <v>1.033168659125375</v>
       </c>
       <c r="D18">
-        <v>1.008997344826761</v>
+        <v>1.041433702472153</v>
       </c>
       <c r="E18">
-        <v>1.009229830789622</v>
+        <v>1.041896249359466</v>
       </c>
       <c r="F18">
-        <v>1.014686694110526</v>
+        <v>1.0512044926388</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042834978683764</v>
+        <v>1.032359158600115</v>
       </c>
       <c r="J18">
-        <v>1.020627019827882</v>
+        <v>1.039290166285956</v>
       </c>
       <c r="K18">
-        <v>1.022662558863997</v>
+        <v>1.044739057813835</v>
       </c>
       <c r="L18">
-        <v>1.022891124773072</v>
+        <v>1.045200032990529</v>
       </c>
       <c r="M18">
-        <v>1.028256641788283</v>
+        <v>1.054476970119228</v>
       </c>
       <c r="N18">
-        <v>1.010686715943213</v>
+        <v>1.017038511631279</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9936462378465708</v>
+        <v>1.033235757621712</v>
       </c>
       <c r="D19">
-        <v>1.009275331656975</v>
+        <v>1.041493433254016</v>
       </c>
       <c r="E19">
-        <v>1.009507276071651</v>
+        <v>1.04195609485873</v>
       </c>
       <c r="F19">
-        <v>1.014994553607794</v>
+        <v>1.05127153009658</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042893808988037</v>
+        <v>1.032365321251358</v>
       </c>
       <c r="J19">
-        <v>1.020815405484733</v>
+        <v>1.039329803158225</v>
       </c>
       <c r="K19">
-        <v>1.02287216358847</v>
+        <v>1.044784365434596</v>
       </c>
       <c r="L19">
-        <v>1.023100220782308</v>
+        <v>1.045245462313705</v>
       </c>
       <c r="M19">
-        <v>1.028496202381116</v>
+        <v>1.054529714295494</v>
       </c>
       <c r="N19">
-        <v>1.010750314205733</v>
+        <v>1.017051794004784</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.992132632247328</v>
+        <v>1.032935729623955</v>
       </c>
       <c r="D20">
-        <v>1.008028855090149</v>
+        <v>1.041226379594039</v>
       </c>
       <c r="E20">
-        <v>1.008263267212363</v>
+        <v>1.041688532345868</v>
       </c>
       <c r="F20">
-        <v>1.013614183235143</v>
+        <v>1.050971820444955</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042629049202041</v>
+        <v>1.032337651717042</v>
       </c>
       <c r="J20">
-        <v>1.019970233008406</v>
+        <v>1.039152538023326</v>
       </c>
       <c r="K20">
-        <v>1.021931980784642</v>
+        <v>1.044581762656882</v>
       </c>
       <c r="L20">
-        <v>1.022162356732367</v>
+        <v>1.045042319451592</v>
       </c>
       <c r="M20">
-        <v>1.027421794564475</v>
+        <v>1.054293876240911</v>
       </c>
       <c r="N20">
-        <v>1.010464977946632</v>
+        <v>1.016992388818959</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.987128678405115</v>
+        <v>1.031961234010434</v>
       </c>
       <c r="D21">
-        <v>1.0039178315872</v>
+        <v>1.040359512470159</v>
       </c>
       <c r="E21">
-        <v>1.004161084857995</v>
+        <v>1.040820084474215</v>
       </c>
       <c r="F21">
-        <v>1.009062467405437</v>
+        <v>1.049999157804414</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041738818168786</v>
+        <v>1.032245789561244</v>
       </c>
       <c r="J21">
-        <v>1.017174578596819</v>
+        <v>1.038576242600991</v>
       </c>
       <c r="K21">
-        <v>1.018825357666375</v>
+        <v>1.043923501418499</v>
       </c>
       <c r="L21">
-        <v>1.019064050718842</v>
+        <v>1.044382376038845</v>
       </c>
       <c r="M21">
-        <v>1.023874158822132</v>
+        <v>1.053527964021988</v>
       </c>
       <c r="N21">
-        <v>1.009520991944341</v>
+        <v>1.016799201211147</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9839160059313786</v>
+        <v>1.031349246937011</v>
       </c>
       <c r="D22">
-        <v>1.001286281556311</v>
+        <v>1.039815523374501</v>
       </c>
       <c r="E22">
-        <v>1.001535739671104</v>
+        <v>1.040275157919899</v>
       </c>
       <c r="F22">
-        <v>1.00614946480416</v>
+        <v>1.049388936701265</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041156019732532</v>
+        <v>1.032186574631713</v>
       </c>
       <c r="J22">
-        <v>1.015378741467358</v>
+        <v>1.038213917956103</v>
       </c>
       <c r="K22">
-        <v>1.016832299951932</v>
+        <v>1.043509956116915</v>
       </c>
       <c r="L22">
-        <v>1.01707683452613</v>
+        <v>1.043967829573978</v>
       </c>
       <c r="M22">
-        <v>1.021600076062512</v>
+        <v>1.053047041867309</v>
       </c>
       <c r="N22">
-        <v>1.008914503622212</v>
+        <v>1.016677696437486</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9856255941604234</v>
+        <v>1.031673604354912</v>
       </c>
       <c r="D23">
-        <v>1.00268587489748</v>
+        <v>1.040103802631546</v>
       </c>
       <c r="E23">
-        <v>1.002931981207376</v>
+        <v>1.040563928792324</v>
       </c>
       <c r="F23">
-        <v>1.007698691854383</v>
+        <v>1.04971229967343</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041467191791903</v>
+        <v>1.032218103532089</v>
       </c>
       <c r="J23">
-        <v>1.016334451255078</v>
+        <v>1.038405991216846</v>
       </c>
       <c r="K23">
-        <v>1.017892728562885</v>
+        <v>1.04372915255598</v>
       </c>
       <c r="L23">
-        <v>1.018134107368625</v>
+        <v>1.044187551394336</v>
       </c>
       <c r="M23">
-        <v>1.022809848842539</v>
+        <v>1.053301926836846</v>
       </c>
       <c r="N23">
-        <v>1.009237273632725</v>
+        <v>1.016742112047945</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9922154378168897</v>
+        <v>1.032952079206313</v>
       </c>
       <c r="D24">
-        <v>1.008097010817753</v>
+        <v>1.041240930305734</v>
       </c>
       <c r="E24">
-        <v>1.008331285396802</v>
+        <v>1.041703110515175</v>
       </c>
       <c r="F24">
-        <v>1.013689656592596</v>
+        <v>1.050988149671072</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042643589906037</v>
+        <v>1.032339167042719</v>
       </c>
       <c r="J24">
-        <v>1.020016476530272</v>
+        <v>1.03916219984954</v>
       </c>
       <c r="K24">
-        <v>1.021983410433815</v>
+        <v>1.044592803971432</v>
       </c>
       <c r="L24">
-        <v>1.02221365709899</v>
+        <v>1.045053389925569</v>
       </c>
       <c r="M24">
-        <v>1.027480557163188</v>
+        <v>1.054306727539898</v>
       </c>
       <c r="N24">
-        <v>1.010480590698628</v>
+        <v>1.016995626919038</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9995909495956196</v>
+        <v>1.034438745294806</v>
       </c>
       <c r="D25">
-        <v>1.014184477741318</v>
+        <v>1.042564988843725</v>
       </c>
       <c r="E25">
-        <v>1.014407716719276</v>
+        <v>1.043029798211897</v>
       </c>
       <c r="F25">
-        <v>1.020432473948711</v>
+        <v>1.052474429204321</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043911341591654</v>
+        <v>1.032473286466476</v>
       </c>
       <c r="J25">
-        <v>1.024132087764547</v>
+        <v>1.040039758402683</v>
       </c>
       <c r="K25">
-        <v>1.026566517366538</v>
+        <v>1.045596408368547</v>
       </c>
       <c r="L25">
-        <v>1.026786414049223</v>
+        <v>1.046059778304667</v>
       </c>
       <c r="M25">
-        <v>1.032721671224623</v>
+        <v>1.055475461339676</v>
       </c>
       <c r="N25">
-        <v>1.011869790852934</v>
+        <v>1.017289625680567</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_84/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_84/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035626920226119</v>
+        <v>1.005272596995321</v>
       </c>
       <c r="D2">
-        <v>1.043624602210796</v>
+        <v>1.01889711996642</v>
       </c>
       <c r="E2">
-        <v>1.044091706489379</v>
+        <v>1.019113612592089</v>
       </c>
       <c r="F2">
-        <v>1.05366442745138</v>
+        <v>1.02565524854458</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032575100587231</v>
+        <v>1.044847052261719</v>
       </c>
       <c r="J2">
-        <v>1.040739663707883</v>
+        <v>1.027296741191011</v>
       </c>
       <c r="K2">
-        <v>1.046397942509901</v>
+        <v>1.030099318793354</v>
       </c>
       <c r="L2">
-        <v>1.046863731298549</v>
+        <v>1.030312934927867</v>
       </c>
       <c r="M2">
-        <v>1.056409771367323</v>
+        <v>1.036768371149597</v>
       </c>
       <c r="N2">
-        <v>1.01752394591051</v>
+        <v>1.01293747699864</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036491012469765</v>
+        <v>1.009289589728503</v>
       </c>
       <c r="D3">
-        <v>1.044395999858868</v>
+        <v>1.0222416561472</v>
       </c>
       <c r="E3">
-        <v>1.044864885175132</v>
+        <v>1.022454390445739</v>
       </c>
       <c r="F3">
-        <v>1.054531073377579</v>
+        <v>1.029363602663663</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032646022446604</v>
+        <v>1.045484107750992</v>
       </c>
       <c r="J3">
-        <v>1.041247813820245</v>
+        <v>1.029530175267731</v>
       </c>
       <c r="K3">
-        <v>1.046980516733484</v>
+        <v>1.032597645465307</v>
       </c>
       <c r="L3">
-        <v>1.047448176880773</v>
+        <v>1.032807803639092</v>
       </c>
       <c r="M3">
-        <v>1.057089369788153</v>
+        <v>1.039634065846212</v>
       </c>
       <c r="N3">
-        <v>1.017693974299031</v>
+        <v>1.013690636672344</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037050763424595</v>
+        <v>1.011841218331058</v>
       </c>
       <c r="D4">
-        <v>1.044896071442355</v>
+        <v>1.024371740594698</v>
       </c>
       <c r="E4">
-        <v>1.045366162283228</v>
+        <v>1.024582554963338</v>
       </c>
       <c r="F4">
-        <v>1.055093043636203</v>
+        <v>1.031726273954747</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032690519455625</v>
+        <v>1.045877154392245</v>
       </c>
       <c r="J4">
-        <v>1.041576592950654</v>
+        <v>1.030946799201269</v>
       </c>
       <c r="K4">
-        <v>1.047357745120445</v>
+        <v>1.034184656210494</v>
       </c>
       <c r="L4">
-        <v>1.047826669408872</v>
+        <v>1.034393074029138</v>
       </c>
       <c r="M4">
-        <v>1.057529663920271</v>
+        <v>1.041456295440356</v>
       </c>
       <c r="N4">
-        <v>1.017803940699223</v>
+        <v>1.014168171476086</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037286230835973</v>
+        <v>1.012902873248005</v>
       </c>
       <c r="D5">
-        <v>1.045106521299001</v>
+        <v>1.02525931425825</v>
       </c>
       <c r="E5">
-        <v>1.045577131646819</v>
+        <v>1.025469441894786</v>
       </c>
       <c r="F5">
-        <v>1.055329579445941</v>
+        <v>1.032710981031915</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032708891579245</v>
+        <v>1.046037861144051</v>
       </c>
       <c r="J5">
-        <v>1.041714803657415</v>
+        <v>1.031535684778804</v>
       </c>
       <c r="K5">
-        <v>1.047516393631427</v>
+        <v>1.034844943450767</v>
       </c>
       <c r="L5">
-        <v>1.047985862113665</v>
+        <v>1.035052746869561</v>
       </c>
       <c r="M5">
-        <v>1.057714893237845</v>
+        <v>1.042214896784622</v>
       </c>
       <c r="N5">
-        <v>1.017850157311674</v>
+        <v>1.014366635441459</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037325775488237</v>
+        <v>1.013080491826736</v>
       </c>
       <c r="D6">
-        <v>1.045141869588943</v>
+        <v>1.025407884473339</v>
       </c>
       <c r="E6">
-        <v>1.045612567909207</v>
+        <v>1.025617903804871</v>
       </c>
       <c r="F6">
-        <v>1.055369311417888</v>
+        <v>1.032875823361838</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032711956710249</v>
+        <v>1.046064580545654</v>
       </c>
       <c r="J6">
-        <v>1.041738009332726</v>
+        <v>1.031634175438331</v>
       </c>
       <c r="K6">
-        <v>1.047543034989323</v>
+        <v>1.034955409746964</v>
       </c>
       <c r="L6">
-        <v>1.048012595591737</v>
+        <v>1.03516311683085</v>
       </c>
       <c r="M6">
-        <v>1.057746001610916</v>
+        <v>1.04234183762129</v>
       </c>
       <c r="N6">
-        <v>1.017857916492216</v>
+        <v>1.014399825637245</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037053909171745</v>
+        <v>1.011855447175519</v>
       </c>
       <c r="D7">
-        <v>1.044898882622458</v>
+        <v>1.02438363118338</v>
       </c>
       <c r="E7">
-        <v>1.045368980355091</v>
+        <v>1.024594435905529</v>
       </c>
       <c r="F7">
-        <v>1.055096203127707</v>
+        <v>1.031739464943582</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032690766259691</v>
+        <v>1.045879319486444</v>
       </c>
       <c r="J7">
-        <v>1.041578439762161</v>
+        <v>1.030954693875525</v>
       </c>
       <c r="K7">
-        <v>1.047359864749051</v>
+        <v>1.034193505838169</v>
       </c>
       <c r="L7">
-        <v>1.047828796258926</v>
+        <v>1.034401914988768</v>
       </c>
       <c r="M7">
-        <v>1.05753213845606</v>
+        <v>1.041466460960752</v>
       </c>
       <c r="N7">
-        <v>1.017804558300592</v>
+        <v>1.014170832292227</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035918813749614</v>
+        <v>1.006640239582302</v>
       </c>
       <c r="D8">
-        <v>1.043885106864295</v>
+        <v>1.02003461966919</v>
       </c>
       <c r="E8">
-        <v>1.044352802062566</v>
+        <v>1.0202497348058</v>
       </c>
       <c r="F8">
-        <v>1.053957066435467</v>
+        <v>1.026916306690431</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032599357244109</v>
+        <v>1.045066354357956</v>
       </c>
       <c r="J8">
-        <v>1.040911400401632</v>
+        <v>1.028057560545017</v>
       </c>
       <c r="K8">
-        <v>1.046594770660754</v>
+        <v>1.03094987910631</v>
       </c>
       <c r="L8">
-        <v>1.047061180859563</v>
+        <v>1.031162222557867</v>
       </c>
       <c r="M8">
-        <v>1.056639330270852</v>
+        <v>1.037743616651167</v>
       </c>
       <c r="N8">
-        <v>1.017581418547747</v>
+        <v>1.013194077047459</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033923493451611</v>
+        <v>0.9970688562892314</v>
       </c>
       <c r="D9">
-        <v>1.042105876478909</v>
+        <v>1.012099064266959</v>
       </c>
       <c r="E9">
-        <v>1.042569744663843</v>
+        <v>1.01232579972792</v>
       </c>
       <c r="F9">
-        <v>1.051958980511702</v>
+        <v>1.018122138279797</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032427633894362</v>
+        <v>1.043484154324502</v>
       </c>
       <c r="J9">
-        <v>1.039735836973148</v>
+        <v>1.022725547089762</v>
       </c>
       <c r="K9">
-        <v>1.045248663912828</v>
+        <v>1.024998845822249</v>
       </c>
       <c r="L9">
-        <v>1.045711038984046</v>
+        <v>1.025222015377435</v>
       </c>
       <c r="M9">
-        <v>1.05507036206632</v>
+        <v>1.030927882912011</v>
       </c>
       <c r="N9">
-        <v>1.017187831090617</v>
+        <v>1.01139509714371</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032596646662624</v>
+        <v>0.9904068042997077</v>
       </c>
       <c r="D10">
-        <v>1.04092465569426</v>
+        <v>1.006609298993954</v>
       </c>
       <c r="E10">
-        <v>1.04138624599982</v>
+        <v>1.006846643697056</v>
       </c>
       <c r="F10">
-        <v>1.050633237420432</v>
+        <v>1.012042303335984</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03230603060926</v>
+        <v>1.042324543735985</v>
       </c>
       <c r="J10">
-        <v>1.038952103916937</v>
+        <v>1.019006275916306</v>
       </c>
       <c r="K10">
-        <v>1.044352750838056</v>
+        <v>1.020860237152472</v>
       </c>
       <c r="L10">
-        <v>1.044812709893414</v>
+        <v>1.021093370518096</v>
       </c>
       <c r="M10">
-        <v>1.054027355152233</v>
+        <v>1.026197481841524</v>
       </c>
       <c r="N10">
-        <v>1.016925208826512</v>
+        <v>1.010139511318821</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032022926309189</v>
+        <v>0.987449499068991</v>
       </c>
       <c r="D11">
-        <v>1.040414367435197</v>
+        <v>1.004180955429169</v>
       </c>
       <c r="E11">
-        <v>1.040875036285391</v>
+        <v>1.004423611299092</v>
       </c>
       <c r="F11">
-        <v>1.050060698203215</v>
+        <v>1.009353759087112</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032251694167479</v>
+        <v>1.041796550875055</v>
       </c>
       <c r="J11">
-        <v>1.038612749992008</v>
+        <v>1.017353877499336</v>
       </c>
       <c r="K11">
-        <v>1.04396518297115</v>
+        <v>1.019024453437722</v>
       </c>
       <c r="L11">
-        <v>1.044424160858728</v>
+        <v>1.019262584190703</v>
       </c>
       <c r="M11">
-        <v>1.053576447289667</v>
+        <v>1.02410140705839</v>
       </c>
       <c r="N11">
-        <v>1.016811441976499</v>
+        <v>1.009581540613743</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03180994481074</v>
+        <v>0.9863395824310667</v>
       </c>
       <c r="D12">
-        <v>1.040225004054361</v>
+        <v>1.003270906961278</v>
       </c>
       <c r="E12">
-        <v>1.040685340386378</v>
+        <v>1.003515646961396</v>
       </c>
       <c r="F12">
-        <v>1.049848261440063</v>
+        <v>1.008346309129496</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032231259216615</v>
+        <v>1.04159645118987</v>
       </c>
       <c r="J12">
-        <v>1.038486701339081</v>
+        <v>1.016733542566409</v>
       </c>
       <c r="K12">
-        <v>1.043821279859903</v>
+        <v>1.018335708711578</v>
       </c>
       <c r="L12">
-        <v>1.044279903061213</v>
+        <v>1.018575801255881</v>
       </c>
       <c r="M12">
-        <v>1.053409070033019</v>
+        <v>1.023315335088437</v>
       </c>
       <c r="N12">
-        <v>1.016769176936979</v>
+        <v>1.009372052242186</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031855624437335</v>
+        <v>0.9865781900421371</v>
       </c>
       <c r="D13">
-        <v>1.040265614948504</v>
+        <v>1.003466485819055</v>
       </c>
       <c r="E13">
-        <v>1.040726022165471</v>
+        <v>1.00371077366829</v>
       </c>
       <c r="F13">
-        <v>1.049893819416283</v>
+        <v>1.008562815702436</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03223565397521</v>
+        <v>1.041639554884388</v>
       </c>
       <c r="J13">
-        <v>1.038513739067952</v>
+        <v>1.016866907759001</v>
       </c>
       <c r="K13">
-        <v>1.043852144969021</v>
+        <v>1.018483761605733</v>
       </c>
       <c r="L13">
-        <v>1.044310843809935</v>
+        <v>1.018723428513876</v>
       </c>
       <c r="M13">
-        <v>1.053444968018103</v>
+        <v>1.023484294735818</v>
       </c>
       <c r="N13">
-        <v>1.016778243238672</v>
+        <v>1.009417090698941</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032005318657443</v>
+        <v>0.9873579896342255</v>
       </c>
       <c r="D14">
-        <v>1.040398710908021</v>
+        <v>1.004105896955666</v>
       </c>
       <c r="E14">
-        <v>1.040859352073213</v>
+        <v>1.004348722807877</v>
       </c>
       <c r="F14">
-        <v>1.050043133414866</v>
+        <v>1.009270664977686</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032250010144637</v>
+        <v>1.04178009231005</v>
       </c>
       <c r="J14">
-        <v>1.038602330712117</v>
+        <v>1.017302735818463</v>
       </c>
       <c r="K14">
-        <v>1.043953286726657</v>
+        <v>1.018967663067435</v>
       </c>
       <c r="L14">
-        <v>1.044412235096591</v>
+        <v>1.019205953812038</v>
       </c>
       <c r="M14">
-        <v>1.053562609579758</v>
+        <v>1.024036584933671</v>
       </c>
       <c r="N14">
-        <v>1.016807948474376</v>
+        <v>1.009564270309918</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032097566658678</v>
+        <v>0.9878369171824934</v>
       </c>
       <c r="D15">
-        <v>1.040480739682702</v>
+        <v>1.004498781113251</v>
       </c>
       <c r="E15">
-        <v>1.040941526283378</v>
+        <v>1.00474072104371</v>
       </c>
       <c r="F15">
-        <v>1.050135161206851</v>
+        <v>1.009705615154321</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032258822084082</v>
+        <v>1.041866151858054</v>
       </c>
       <c r="J15">
-        <v>1.038656915320338</v>
+        <v>1.01757038645833</v>
       </c>
       <c r="K15">
-        <v>1.044015611079858</v>
+        <v>1.01926489395087</v>
       </c>
       <c r="L15">
-        <v>1.044474714486572</v>
+        <v>1.019502350871881</v>
       </c>
       <c r="M15">
-        <v>1.053635107054766</v>
+        <v>1.024375865974626</v>
       </c>
       <c r="N15">
-        <v>1.016826249942302</v>
+        <v>1.009654653954498</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032634739862522</v>
+        <v>0.9906014964816694</v>
       </c>
       <c r="D16">
-        <v>1.040958547039882</v>
+        <v>1.006769350728155</v>
       </c>
       <c r="E16">
-        <v>1.041420199866691</v>
+        <v>1.007006358357088</v>
       </c>
       <c r="F16">
-        <v>1.050671267078948</v>
+        <v>1.012219520934117</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032309601368781</v>
+        <v>1.042359031994909</v>
       </c>
       <c r="J16">
-        <v>1.038974625996247</v>
+        <v>1.019115034806099</v>
       </c>
       <c r="K16">
-        <v>1.044378480331092</v>
+        <v>1.020981126872777</v>
       </c>
       <c r="L16">
-        <v>1.044838505872457</v>
+        <v>1.021213943213092</v>
       </c>
       <c r="M16">
-        <v>1.054057295756054</v>
+        <v>1.026335558017839</v>
       </c>
       <c r="N16">
-        <v>1.016932758153505</v>
+        <v>1.010176233640075</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032971913252483</v>
+        <v>0.9923158408472821</v>
       </c>
       <c r="D17">
-        <v>1.041258582407555</v>
+        <v>1.008179656248701</v>
       </c>
       <c r="E17">
-        <v>1.041720795968347</v>
+        <v>1.008413764446535</v>
       </c>
       <c r="F17">
-        <v>1.051007959486965</v>
+        <v>1.013781175895515</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03234100415896</v>
+        <v>1.042661212071112</v>
       </c>
       <c r="J17">
-        <v>1.039173920516027</v>
+        <v>1.020072546572152</v>
       </c>
       <c r="K17">
-        <v>1.044606198318987</v>
+        <v>1.022045770532589</v>
       </c>
       <c r="L17">
-        <v>1.045066819688999</v>
+        <v>1.022275860815198</v>
       </c>
       <c r="M17">
-        <v>1.054322317793547</v>
+        <v>1.027551810144574</v>
       </c>
       <c r="N17">
-        <v>1.016999554991937</v>
+        <v>1.010499520990987</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033168659125375</v>
+        <v>0.9933088226004821</v>
       </c>
       <c r="D18">
-        <v>1.041433702472153</v>
+        <v>1.008997344826761</v>
       </c>
       <c r="E18">
-        <v>1.041896249359466</v>
+        <v>1.009229830789621</v>
       </c>
       <c r="F18">
-        <v>1.0512044926388</v>
+        <v>1.014686694110525</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032359158600115</v>
+        <v>1.042834978683764</v>
       </c>
       <c r="J18">
-        <v>1.039290166285956</v>
+        <v>1.020627019827882</v>
       </c>
       <c r="K18">
-        <v>1.044739057813835</v>
+        <v>1.022662558863997</v>
       </c>
       <c r="L18">
-        <v>1.045200032990529</v>
+        <v>1.022891124773071</v>
       </c>
       <c r="M18">
-        <v>1.054476970119228</v>
+        <v>1.028256641788282</v>
       </c>
       <c r="N18">
-        <v>1.017038511631279</v>
+        <v>1.010686715943213</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033235757621712</v>
+        <v>0.9936462378465706</v>
       </c>
       <c r="D19">
-        <v>1.041493433254016</v>
+        <v>1.009275331656975</v>
       </c>
       <c r="E19">
-        <v>1.04195609485873</v>
+        <v>1.009507276071651</v>
       </c>
       <c r="F19">
-        <v>1.05127153009658</v>
+        <v>1.014994553607794</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032365321251358</v>
+        <v>1.042893808988037</v>
       </c>
       <c r="J19">
-        <v>1.039329803158225</v>
+        <v>1.020815405484732</v>
       </c>
       <c r="K19">
-        <v>1.044784365434596</v>
+        <v>1.02287216358847</v>
       </c>
       <c r="L19">
-        <v>1.045245462313705</v>
+        <v>1.023100220782308</v>
       </c>
       <c r="M19">
-        <v>1.054529714295494</v>
+        <v>1.028496202381116</v>
       </c>
       <c r="N19">
-        <v>1.017051794004784</v>
+        <v>1.010750314205733</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032935729623955</v>
+        <v>0.9921326322473278</v>
       </c>
       <c r="D20">
-        <v>1.041226379594039</v>
+        <v>1.008028855090149</v>
       </c>
       <c r="E20">
-        <v>1.041688532345868</v>
+        <v>1.008263267212363</v>
       </c>
       <c r="F20">
-        <v>1.050971820444955</v>
+        <v>1.013614183235143</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032337651717042</v>
+        <v>1.042629049202041</v>
       </c>
       <c r="J20">
-        <v>1.039152538023326</v>
+        <v>1.019970233008406</v>
       </c>
       <c r="K20">
-        <v>1.044581762656882</v>
+        <v>1.021931980784642</v>
       </c>
       <c r="L20">
-        <v>1.045042319451592</v>
+        <v>1.022162356732367</v>
       </c>
       <c r="M20">
-        <v>1.054293876240911</v>
+        <v>1.027421794564474</v>
       </c>
       <c r="N20">
-        <v>1.016992388818959</v>
+        <v>1.010464977946632</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031961234010434</v>
+        <v>0.9871286784051143</v>
       </c>
       <c r="D21">
-        <v>1.040359512470159</v>
+        <v>1.0039178315872</v>
       </c>
       <c r="E21">
-        <v>1.040820084474215</v>
+        <v>1.004161084857994</v>
       </c>
       <c r="F21">
-        <v>1.049999157804414</v>
+        <v>1.009062467405437</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032245789561244</v>
+        <v>1.041738818168786</v>
       </c>
       <c r="J21">
-        <v>1.038576242600991</v>
+        <v>1.017174578596818</v>
       </c>
       <c r="K21">
-        <v>1.043923501418499</v>
+        <v>1.018825357666375</v>
       </c>
       <c r="L21">
-        <v>1.044382376038845</v>
+        <v>1.019064050718842</v>
       </c>
       <c r="M21">
-        <v>1.053527964021988</v>
+        <v>1.023874158822131</v>
       </c>
       <c r="N21">
-        <v>1.016799201211147</v>
+        <v>1.009520991944341</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031349246937011</v>
+        <v>0.9839160059313792</v>
       </c>
       <c r="D22">
-        <v>1.039815523374501</v>
+        <v>1.001286281556312</v>
       </c>
       <c r="E22">
-        <v>1.040275157919899</v>
+        <v>1.001535739671105</v>
       </c>
       <c r="F22">
-        <v>1.049388936701265</v>
+        <v>1.006149464804161</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032186574631713</v>
+        <v>1.041156019732532</v>
       </c>
       <c r="J22">
-        <v>1.038213917956103</v>
+        <v>1.015378741467358</v>
       </c>
       <c r="K22">
-        <v>1.043509956116915</v>
+        <v>1.016832299951932</v>
       </c>
       <c r="L22">
-        <v>1.043967829573978</v>
+        <v>1.01707683452613</v>
       </c>
       <c r="M22">
-        <v>1.053047041867309</v>
+        <v>1.021600076062513</v>
       </c>
       <c r="N22">
-        <v>1.016677696437486</v>
+        <v>1.008914503622212</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031673604354912</v>
+        <v>0.9856255941604234</v>
       </c>
       <c r="D23">
-        <v>1.040103802631546</v>
+        <v>1.00268587489748</v>
       </c>
       <c r="E23">
-        <v>1.040563928792324</v>
+        <v>1.002931981207376</v>
       </c>
       <c r="F23">
-        <v>1.04971229967343</v>
+        <v>1.007698691854383</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032218103532089</v>
+        <v>1.041467191791902</v>
       </c>
       <c r="J23">
-        <v>1.038405991216846</v>
+        <v>1.016334451255078</v>
       </c>
       <c r="K23">
-        <v>1.04372915255598</v>
+        <v>1.017892728562885</v>
       </c>
       <c r="L23">
-        <v>1.044187551394336</v>
+        <v>1.018134107368625</v>
       </c>
       <c r="M23">
-        <v>1.053301926836846</v>
+        <v>1.022809848842539</v>
       </c>
       <c r="N23">
-        <v>1.016742112047945</v>
+        <v>1.009237273632725</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032952079206313</v>
+        <v>0.9922154378168904</v>
       </c>
       <c r="D24">
-        <v>1.041240930305734</v>
+        <v>1.008097010817754</v>
       </c>
       <c r="E24">
-        <v>1.041703110515175</v>
+        <v>1.008331285396803</v>
       </c>
       <c r="F24">
-        <v>1.050988149671072</v>
+        <v>1.013689656592596</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032339167042719</v>
+        <v>1.042643589906037</v>
       </c>
       <c r="J24">
-        <v>1.03916219984954</v>
+        <v>1.020016476530272</v>
       </c>
       <c r="K24">
-        <v>1.044592803971432</v>
+        <v>1.021983410433816</v>
       </c>
       <c r="L24">
-        <v>1.045053389925569</v>
+        <v>1.02221365709899</v>
       </c>
       <c r="M24">
-        <v>1.054306727539898</v>
+        <v>1.027480557163188</v>
       </c>
       <c r="N24">
-        <v>1.016995626919038</v>
+        <v>1.010480590698628</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034438745294806</v>
+        <v>0.9995909495956194</v>
       </c>
       <c r="D25">
-        <v>1.042564988843725</v>
+        <v>1.014184477741317</v>
       </c>
       <c r="E25">
-        <v>1.043029798211897</v>
+        <v>1.014407716719275</v>
       </c>
       <c r="F25">
-        <v>1.052474429204321</v>
+        <v>1.020432473948711</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032473286466476</v>
+        <v>1.043911341591654</v>
       </c>
       <c r="J25">
-        <v>1.040039758402683</v>
+        <v>1.024132087764547</v>
       </c>
       <c r="K25">
-        <v>1.045596408368547</v>
+        <v>1.026566517366538</v>
       </c>
       <c r="L25">
-        <v>1.046059778304667</v>
+        <v>1.026786414049223</v>
       </c>
       <c r="M25">
-        <v>1.055475461339676</v>
+        <v>1.032721671224623</v>
       </c>
       <c r="N25">
-        <v>1.017289625680567</v>
+        <v>1.011869790852934</v>
       </c>
     </row>
   </sheetData>
